--- a/lab/lab1/lab1.xlsx
+++ b/lab/lab1/lab1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10584" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>LinearSearch</t>
   </si>
@@ -34,13 +34,187 @@
   <si>
     <t>InterpolationSearch</t>
   </si>
+  <si>
+    <r>
+      <t>Linear Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (O(n)): Графік лінійно зростає з розміром масиву. Це характерно для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Binary Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (O(log n)): Графік показує майже постійну кількість порівнянь, що характерно для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(log n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interpolation Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (O(log log n) в ідеальних випадках): Графік показує, що кількість порівнянь змінюється повільно, але може зрости при не рівномірному розподілі, що вказує на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O(log log n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в оптимальних умовах.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LinearSearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: лінійний зріст.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BinarySearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: дуже повільний зріст (практично сталий).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>InterpolationSearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: невеликі коливання при повільному зростанні.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +297,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2795,15 +2979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>1083945</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2825,15 +3009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>1083945</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2854,16 +3038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3148,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3159,6 +3343,9 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3172,9 +3359,9 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -3193,9 +3380,9 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3214,9 +3401,9 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3235,9 +3422,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3256,9 +3443,9 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3277,9 +3464,9 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3298,9 +3485,9 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3319,9 +3506,9 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3340,9 +3527,9 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3361,9 +3548,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3382,9 +3569,9 @@
       <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3417,7 +3604,9 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3430,7 +3619,9 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3443,7 +3634,9 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3455,6 +3648,24 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
